--- a/db/dummydata/saco/saco__hubs.xlsx
+++ b/db/dummydata/saco/saco__hubs.xlsx
@@ -58,6 +58,150 @@
     <t>ocean</t>
   </si>
   <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Shaikh Khalifa Bin Salman Causeway, Al Hidd, Bahrain</t>
+  </si>
+  <si>
+    <t>Chittagong</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Chittagong Port Container Terminal, Bangladesh</t>
+  </si>
+  <si>
+    <t>Antwerpen</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Zaha Hadidplein 1, 2030 Antwerpen, Belgien</t>
+  </si>
+  <si>
+    <t>Phnom Penh</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>No. 649, Preah Sisowath Quay, Phnom Penh 12201, Cambodia</t>
+  </si>
+  <si>
+    <t>Sihanoukville</t>
+  </si>
+  <si>
+    <t>Krong Preah Sihanouk, Cambodia</t>
+  </si>
+  <si>
+    <t>Dalian</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Shugang Rd, Zhongshan Qu, Dalian Shi, Liaoning Sheng, Kina, 116001</t>
+  </si>
+  <si>
+    <t>Guangzhou</t>
+  </si>
+  <si>
+    <t>406 Yanjiang E Rd, Yuexiu Qu, Guangzhou Shi, Guangdong Sheng, Kina, 510000</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hong Kong, Central, Hutchison Building, 10 Harcourt Road, Central</t>
+  </si>
+  <si>
+    <t>Huangpu</t>
+  </si>
+  <si>
+    <t>Kina, Guangdong Sheng, Guangzhou Shi, Huangpu Qu, Gangqian Rd, Gangqian Road Interchange</t>
+  </si>
+  <si>
+    <t>Nanjing</t>
+  </si>
+  <si>
+    <t>Shugang Ave, Qixia Qu, Nanjing Shi, Jiangsu Sheng, Kina</t>
+  </si>
+  <si>
+    <t>Ningbo</t>
+  </si>
+  <si>
+    <t>237 Yingbin Rd, Beilun Qu, Ningbo Shi, Zhejiang Sheng, Kina, 315800</t>
+  </si>
+  <si>
+    <t>Quingdao</t>
+  </si>
+  <si>
+    <t>Kina, Shandong, Qingdao, Huangdao, Latitude 4th Rd, 11 Hong Kong Road</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Huogaitang Rd, Shengsi Xian, Zhoushan Shi, Zhejiang Sheng, Kina</t>
+  </si>
+  <si>
+    <t>Shantou</t>
+  </si>
+  <si>
+    <t>Zhongshan E Rd, Longhu Qu, Shantou Shi, Guangdong Sheng, Kina, 515100</t>
+  </si>
+  <si>
+    <t>Shekou</t>
+  </si>
+  <si>
+    <t>Youpaotai Rd, Nanshan Qu, Shenzhen Shi, Guangdong Sheng, Kina</t>
+  </si>
+  <si>
+    <t>Wenzhou</t>
+  </si>
+  <si>
+    <t>Nanyang Ave, Longwan Qu, Wenzhou Shi, Zhejiang Sheng, Kina</t>
+  </si>
+  <si>
+    <t>Wuhan</t>
+  </si>
+  <si>
+    <t>Pingjiang Ave, Xinzhou Qu, Wuhan Shi, Hubei Sheng, Kina, 430415</t>
+  </si>
+  <si>
+    <t>Xiamen</t>
+  </si>
+  <si>
+    <t>Kina, Fujian Sheng, Xiamen Shi, Huli Qu, Xiangxing 5 Rd, Xiangxing Wulu Postnummer: 361000</t>
+  </si>
+  <si>
+    <t>Xingang</t>
+  </si>
+  <si>
+    <t>129 Xingang 1st Rd, Binhai Xinqu, Tianjin Shi, Kina</t>
+  </si>
+  <si>
+    <t>Yantian</t>
+  </si>
+  <si>
+    <t>Yantian, Shenzhen, Guangdong, Kina</t>
+  </si>
+  <si>
+    <t>Zhangjiagang</t>
+  </si>
+  <si>
+    <t>Shuangshan Rd, Zhangjiagang Shi, Suzhou Shi, Jiangsu Sheng, Kina, 215634</t>
+  </si>
+  <si>
+    <t>Zhongshan</t>
+  </si>
+  <si>
+    <t>Qimin N Rd, Zhongshan Shi, Guangdong Sheng, Kina</t>
+  </si>
+  <si>
     <t>Hamburg</t>
   </si>
   <si>
@@ -67,6 +211,192 @@
     <t>8, Skagerrakvej, 2100 København Ø, Denmark</t>
   </si>
   <si>
+    <t>Bremerhaven</t>
+  </si>
+  <si>
+    <t>Senator-Borttscheller-Straße 14, 27568 Bremerhaven</t>
+  </si>
+  <si>
+    <t>Calcutta</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Watgunj Redlight Area, Watganj, Kolkata, West Bengal 700023, Indien</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Chennai Port Trust Administrative Building, Ground Floor, 1 Rajaji Salai, Bharati Dock II, Royapuram, Chennai, Tamil Nadu 600001, Indien</t>
+  </si>
+  <si>
+    <t>Cochin</t>
+  </si>
+  <si>
+    <t>Vallarpadam, Ernakulam, Kerala 682031, Indien</t>
+  </si>
+  <si>
+    <t>Mundra</t>
+  </si>
+  <si>
+    <t>New Mundra Port, Navinal Island, Mundra, 370421, Indien</t>
+  </si>
+  <si>
+    <t>Nhava Sheva</t>
+  </si>
+  <si>
+    <t>Navi Mumbai, Maharashtra 400702, Indien</t>
+  </si>
+  <si>
+    <t>Tuticorin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5/120, Harbour Extension Road, Muttayyapuram, Tuticorin Beach Road Salt Pans, Thoothukudi, Tamil Nadu 628005, Indien</t>
+  </si>
+  <si>
+    <t>Belawan</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Jl. Raya Pelabuhan Gabion, Sumatera Utara, Indonesien</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>Jl. Sulawesi Ujung No. 1, Tanjung Priok, RW.1, Koja, RW.1, Koja, Kota Jkt Utara, Daerah Khusus Ibukota Jakarta 14310, Indonesien</t>
+  </si>
+  <si>
+    <t>Palembang</t>
+  </si>
+  <si>
+    <t>Lawang Kidul, Ilir Timur II, Palembang City, Sydsumatra, Indonesien</t>
+  </si>
+  <si>
+    <t>Semarang</t>
+  </si>
+  <si>
+    <t>Jl. Coaster No.10A, Tj. Mas, Semarang Utara, Kota Semarang, Jawa Tengah 50112, Indonesien</t>
+  </si>
+  <si>
+    <t>Surabaya</t>
+  </si>
+  <si>
+    <t>Jl. Tj. Mutiara No.1, Perak Bar., Krembangan, Kota SBY, Jawa Timur 60177, Indonesien</t>
+  </si>
+  <si>
+    <t>Umm Qasr</t>
+  </si>
+  <si>
+    <t>Irak</t>
+  </si>
+  <si>
+    <t>Irak, Umm Qasr 61011, Irak</t>
+  </si>
+  <si>
+    <t>Kobe</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>4 Shinkōchō, Chūō-ku, Kōbe-shi, Hyōgo-ken 650-0041, Japan</t>
+  </si>
+  <si>
+    <t>Moji</t>
+  </si>
+  <si>
+    <t>MOJI PORT, 3 Chome-3-13-26 Dairihonmachi, Moji Ward, Kitakyūshū, Präfektur Fukuoka, Japan</t>
+  </si>
+  <si>
+    <t>Nagoya</t>
+  </si>
+  <si>
+    <t>1-3 Minatomachi, Minato-ku, Nagoya-shi, Aichi-ken 455-0033, Japan</t>
+  </si>
+  <si>
+    <t>Osaka</t>
+  </si>
+  <si>
+    <t>Osaka Port, Konohana Ward, Ōsaka, Präfektur Ōsaka, Japan</t>
+  </si>
+  <si>
+    <t>Shimizu</t>
+  </si>
+  <si>
+    <t>Shimizu Port, 2 Chome-10 Minatocho, Shimizu Ward, Shizuoka, Präfektur Shizuoka, Japan</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Tokyo Harbor, 5 Chome-3 Tokai, Ōta, Präfektur Tokio, Japan</t>
+  </si>
+  <si>
+    <t>Yokohama</t>
+  </si>
+  <si>
+    <t>1-16 Honmokufutō, Naka-ku, Yokohama-shi, Kanagawa-ken 231-0811, Japan</t>
+  </si>
+  <si>
+    <t>Aqaba</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Aqaba Container Terminal - ACT, Jordan</t>
+  </si>
+  <si>
+    <t>Pusan</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>16 Jungangdong 5(o)-ga, Jung-gu, Busan, Südkorea</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kuwait Free Trade Zone, Kuwait</t>
+  </si>
+  <si>
+    <t>Beirut</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Beirut Container Port, Libanon</t>
+  </si>
+  <si>
+    <t>Pasir Gudang</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Pelabuhan Johor Pasir Gudang, 81700 Pasir Gudang, Johor, Malaysia</t>
+  </si>
+  <si>
+    <t>Penang</t>
+  </si>
+  <si>
+    <t>Penang Port, Butterworth, Penang, Malaysia</t>
+  </si>
+  <si>
+    <t>Port Kelang</t>
+  </si>
+  <si>
+    <t>Kawasan 13, 42000 Port Klang, Selangor, Malaysia</t>
+  </si>
+  <si>
     <t>Rotterdam</t>
   </si>
   <si>
@@ -76,241 +406,22 @@
     <t>Stonecutters Island, Hong Kong</t>
   </si>
   <si>
-    <t>Antwerpen</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Zaha Hadidplein 1, 2030 Antwerpen, Belgien</t>
-  </si>
-  <si>
-    <t>Phnom Penh</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>No. 649, Preah Sisowath Quay, Phnom Penh 12201, Cambodia</t>
-  </si>
-  <si>
-    <t>Sihanoukville</t>
-  </si>
-  <si>
-    <t>Krong Preah Sihanouk, Cambodia</t>
-  </si>
-  <si>
-    <t>Dalian</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Shugang Rd, Zhongshan Qu, Dalian Shi, Liaoning Sheng, Kina, 116001</t>
-  </si>
-  <si>
-    <t>Guangzhou</t>
-  </si>
-  <si>
-    <t>406 Yanjiang E Rd, Yuexiu Qu, Guangzhou Shi, Guangdong Sheng, Kina, 510000</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Hong Kong, Central, Hutchison Building, 10 Harcourt Road, Central</t>
-  </si>
-  <si>
-    <t>Huangpu</t>
-  </si>
-  <si>
-    <t>Kina, Guangdong Sheng, Guangzhou Shi, Huangpu Qu, Gangqian Rd, Gangqian Road Interchange</t>
-  </si>
-  <si>
-    <t>Nanjing</t>
-  </si>
-  <si>
-    <t>Shugang Ave, Qixia Qu, Nanjing Shi, Jiangsu Sheng, Kina</t>
-  </si>
-  <si>
-    <t>Ningbo</t>
-  </si>
-  <si>
-    <t>237 Yingbin Rd, Beilun Qu, Ningbo Shi, Zhejiang Sheng, Kina, 315800</t>
-  </si>
-  <si>
-    <t>Quingdao</t>
-  </si>
-  <si>
-    <t>Kina, Shandong, Qingdao, Huangdao, Latitude 4th Rd, 11 Hong Kong Road</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
-  </si>
-  <si>
-    <t>Huogaitang Rd, Shengsi Xian, Zhoushan Shi, Zhejiang Sheng, Kina</t>
-  </si>
-  <si>
-    <t>Shantou</t>
-  </si>
-  <si>
-    <t>Zhongshan E Rd, Longhu Qu, Shantou Shi, Guangdong Sheng, Kina, 515100</t>
-  </si>
-  <si>
-    <t>Shekou</t>
-  </si>
-  <si>
-    <t>Youpaotai Rd, Nanshan Qu, Shenzhen Shi, Guangdong Sheng, Kina</t>
-  </si>
-  <si>
-    <t>Wenzhou</t>
-  </si>
-  <si>
-    <t>Nanyang Ave, Longwan Qu, Wenzhou Shi, Zhejiang Sheng, Kina</t>
-  </si>
-  <si>
-    <t>Wuhan</t>
-  </si>
-  <si>
-    <t>Pingjiang Ave, Xinzhou Qu, Wuhan Shi, Hubei Sheng, Kina, 430415</t>
-  </si>
-  <si>
-    <t>Xiamen</t>
-  </si>
-  <si>
-    <t>Kina, Fujian Sheng, Xiamen Shi, Huli Qu, Xiangxing 5 Rd, Xiangxing Wulu Postnummer: 361000</t>
-  </si>
-  <si>
-    <t>Xingang</t>
-  </si>
-  <si>
-    <t>129 Xingang 1st Rd, Binhai Xinqu, Tianjin Shi, Kina</t>
-  </si>
-  <si>
-    <t>Yantian</t>
-  </si>
-  <si>
-    <t>Yantian, Shenzhen, Guangdong, Kina</t>
-  </si>
-  <si>
-    <t>Zhangjiagang</t>
-  </si>
-  <si>
-    <t>Shuangshan Rd, Zhangjiagang Shi, Suzhou Shi, Jiangsu Sheng, Kina, 215634</t>
-  </si>
-  <si>
-    <t>Zhongshan</t>
-  </si>
-  <si>
-    <t>Qimin N Rd, Zhongshan Shi, Guangdong Sheng, Kina</t>
-  </si>
-  <si>
-    <t>Belawan</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Jl. Raya Pelabuhan Gabion, Sumatera Utara, Indonesien</t>
-  </si>
-  <si>
-    <t>Jakarta</t>
-  </si>
-  <si>
-    <t>Jl. Sulawesi Ujung No. 1, Tanjung Priok, RW.1, Koja, RW.1, Koja, Kota Jkt Utara, Daerah Khusus Ibukota Jakarta 14310, Indonesien</t>
-  </si>
-  <si>
-    <t>Palembang</t>
-  </si>
-  <si>
-    <t>Lawang Kidul, Ilir Timur II, Palembang City, Sydsumatra, Indonesien</t>
-  </si>
-  <si>
-    <t>Semarang</t>
-  </si>
-  <si>
-    <t>Jl. Coaster No.10A, Tj. Mas, Semarang Utara, Kota Semarang, Jawa Tengah 50112, Indonesien</t>
-  </si>
-  <si>
-    <t>Surabaya</t>
-  </si>
-  <si>
-    <t>Jl. Tj. Mutiara No.1, Perak Bar., Krembangan, Kota SBY, Jawa Timur 60177, Indonesien</t>
-  </si>
-  <si>
-    <t>Kobe</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>4 Shinkōchō, Chūō-ku, Kōbe-shi, Hyōgo-ken 650-0041, Japan</t>
-  </si>
-  <si>
-    <t>Moji</t>
-  </si>
-  <si>
-    <t>MOJI PORT, 3 Chome-3-13-26 Dairihonmachi, Moji Ward, Kitakyūshū, Präfektur Fukuoka, Japan</t>
-  </si>
-  <si>
-    <t>Nagoya</t>
-  </si>
-  <si>
-    <t>1-3 Minatomachi, Minato-ku, Nagoya-shi, Aichi-ken 455-0033, Japan</t>
-  </si>
-  <si>
-    <t>Osaka</t>
-  </si>
-  <si>
-    <t>Osaka Port, Konohana Ward, Ōsaka, Präfektur Ōsaka, Japan</t>
-  </si>
-  <si>
-    <t>Shimizu</t>
-  </si>
-  <si>
-    <t>Shimizu Port, 2 Chome-10 Minatocho, Shimizu Ward, Shizuoka, Präfektur Shizuoka, Japan</t>
-  </si>
-  <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
-    <t>Tokyo Harbor, 5 Chome-3 Tokai, Ōta, Präfektur Tokio, Japan</t>
-  </si>
-  <si>
-    <t>Yokohama</t>
-  </si>
-  <si>
-    <t>1-16 Honmokufutō, Naka-ku, Yokohama-shi, Kanagawa-ken 231-0811, Japan</t>
-  </si>
-  <si>
-    <t>Pusan</t>
-  </si>
-  <si>
-    <t>Korea</t>
-  </si>
-  <si>
-    <t>16 Jungangdong 5(o)-ga, Jung-gu, Busan, Südkorea</t>
-  </si>
-  <si>
-    <t>Pasir Gudang</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Pelabuhan Johor Pasir Gudang, 81700 Pasir Gudang, Johor, Malaysia</t>
-  </si>
-  <si>
-    <t>Penang</t>
-  </si>
-  <si>
-    <t>Penang Port, Butterworth, Penang, Malaysia</t>
-  </si>
-  <si>
-    <t>Port Kelang</t>
-  </si>
-  <si>
-    <t>Kawasan 13, 42000 Port Klang, Selangor, Malaysia</t>
+    <t>Sohar</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Liwa, Oman</t>
+  </si>
+  <si>
+    <t>Port Qasim</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Port Mohammad Bin Qasim، Karachi, Sindh, Pakistan</t>
   </si>
   <si>
     <t>Cebu</t>
@@ -328,12 +439,54 @@
     <t>Port Area, Manila, Metro Manila, Philippinen</t>
   </si>
   <si>
+    <t>Hamad</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Municipality, Al Wakrah, Qatar</t>
+  </si>
+  <si>
+    <t>Dammam</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>King Abdulaziz Seaport, Dammam 32211, Saudiarabien</t>
+  </si>
+  <si>
+    <t>Jeddah</t>
+  </si>
+  <si>
+    <t>Jeddah Islamic Seaport, Jeddah 22312, Saudiarabien</t>
+  </si>
+  <si>
     <t>Singapore</t>
   </si>
   <si>
     <t>460 Alexandra Rd, Singapur 119963</t>
   </si>
   <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Colombo, Sri Lanka</t>
+  </si>
+  <si>
+    <t>Lattakia</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Latakia P.O Box 220 PO Box 220, Syrien</t>
+  </si>
+  <si>
     <t>Kaohsiung</t>
   </si>
   <si>
@@ -376,6 +529,27 @@
     <t>Songkhla Port, Hua Khao, Amphoe Singhanakhon, Songkhla, Thailand</t>
   </si>
   <si>
+    <t>Abu Dhabi</t>
+  </si>
+  <si>
+    <t>U.A.E.</t>
+  </si>
+  <si>
+    <t>Khalifa Port Container Terminal, Building 70, Taweelah, Abu Dhabi - Abu Dhabi - Forenede Arabiske Emirater</t>
+  </si>
+  <si>
+    <t>Jebel Ali</t>
+  </si>
+  <si>
+    <t>Jebel Ali Free Zone - Dubai - Forenede Arabiske Emirater</t>
+  </si>
+  <si>
+    <t>Sharjah</t>
+  </si>
+  <si>
+    <t>Sharjah - Forenede Arabiske Emirater</t>
+  </si>
+  <si>
     <t>Haiphong</t>
   </si>
   <si>
@@ -389,180 +563,6 @@
   </si>
   <si>
     <t>Nguyễn Thị Định, Phường Thạnh Mỹ Lợi, Quận 2, Hồ Chí Minh, Vietnam</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Shaikh Khalifa Bin Salman Causeway, Al Hidd, Bahrain</t>
-  </si>
-  <si>
-    <t>Aqaba</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Aqaba Container Terminal - ACT, Jordan</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kuwait Free Trade Zone, Kuwait</t>
-  </si>
-  <si>
-    <t>Sohar</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Liwa, Oman</t>
-  </si>
-  <si>
-    <t>Dammam</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>King Abdulaziz Seaport, Dammam 32211, Saudiarabien</t>
-  </si>
-  <si>
-    <t>Jeddah</t>
-  </si>
-  <si>
-    <t>Jeddah Islamic Seaport, Jeddah 22312, Saudiarabien</t>
-  </si>
-  <si>
-    <t>Abu Dhabi</t>
-  </si>
-  <si>
-    <t>U.A.E.</t>
-  </si>
-  <si>
-    <t>Khalifa Port Container Terminal, Building 70, Taweelah, Abu Dhabi - Abu Dhabi - Forenede Arabiske Emirater</t>
-  </si>
-  <si>
-    <t>Jebel Ali</t>
-  </si>
-  <si>
-    <t>Jebel Ali Free Zone - Dubai - Forenede Arabiske Emirater</t>
-  </si>
-  <si>
-    <t>Sharjah</t>
-  </si>
-  <si>
-    <t>Sharjah - Forenede Arabiske Emirater</t>
-  </si>
-  <si>
-    <t>Umm Qasr</t>
-  </si>
-  <si>
-    <t>Irak</t>
-  </si>
-  <si>
-    <t>Irak, Umm Qasr 61011, Irak</t>
-  </si>
-  <si>
-    <t>Hamad</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Municipality, Al Wakrah, Qatar</t>
-  </si>
-  <si>
-    <t>Beirut</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Beirut Container Port, Libanon</t>
-  </si>
-  <si>
-    <t>Lattakia</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Latakia P.O Box 220 PO Box 220, Syrien</t>
-  </si>
-  <si>
-    <t>Chittagong</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Chittagong Port Container Terminal, Bangladesh</t>
-  </si>
-  <si>
-    <t>Calcutta</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Watgunj Redlight Area, Watganj, Kolkata, West Bengal 700023, Indien</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Chennai Port Trust Administrative Building, Ground Floor, 1 Rajaji Salai, Bharati Dock II, Royapuram, Chennai, Tamil Nadu 600001, Indien</t>
-  </si>
-  <si>
-    <t>Cochin</t>
-  </si>
-  <si>
-    <t>Vallarpadam, Ernakulam, Kerala 682031, Indien</t>
-  </si>
-  <si>
-    <t>Mundra</t>
-  </si>
-  <si>
-    <t>New Mundra Port, Navinal Island, Mundra, 370421, Indien</t>
-  </si>
-  <si>
-    <t>Nhava Sheva</t>
-  </si>
-  <si>
-    <t>Navi Mumbai, Maharashtra 400702, Indien</t>
-  </si>
-  <si>
-    <t>Tuticorin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5/120, Harbour Extension Road, Muttayyapuram, Tuticorin Beach Road Salt Pans, Thoothukudi, Tamil Nadu 628005, Indien</t>
-  </si>
-  <si>
-    <t>Port Qasim</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Port Mohammad Bin Qasim، Karachi, Sindh, Pakistan</t>
-  </si>
-  <si>
-    <t>Colombo</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Colombo, Sri Lanka</t>
-  </si>
-  <si>
-    <t>Bremerhaven</t>
-  </si>
-  <si>
-    <t>Senator-Borttscheller-Straße 14, 27568 Bremerhaven</t>
   </si>
 </sst>
 </file>
@@ -589,16 +589,8 @@
     </font>
     <font/>
     <font>
-      <sz val="9.0"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -610,7 +602,15 @@
     </font>
     <font>
       <sz val="9.0"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
       <color rgb="FF999999"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <name val="Roboto"/>
     </font>
   </fonts>
@@ -657,29 +657,35 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
@@ -691,12 +697,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -720,7 +720,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -792,19 +795,18 @@
       <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7">
-        <v>55.715182</v>
-      </c>
-      <c r="F2" s="8">
-        <v>12.606438</v>
+      <c r="E2" s="6">
+        <v>26.2376961</v>
+      </c>
+      <c r="F2" s="6">
+        <v>50.5734224</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="6"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
       <c r="A3" t="s">
@@ -814,21 +816,20 @@
         <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6">
+        <v>22.3015589</v>
+      </c>
+      <c r="F3" s="6">
+        <v>91.7940582</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10">
-        <v>22.317131</v>
-      </c>
-      <c r="F3" s="8">
-        <v>114.208415</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="6"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
       <c r="A4" t="s">
@@ -838,7 +839,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6">
         <v>51.2411266</v>
@@ -847,10 +848,10 @@
         <v>4.4073496</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="I4" s="6"/>
     </row>
@@ -862,19 +863,19 @@
         <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="6">
         <v>11.5832589</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="9">
         <v>104.9215468</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="6"/>
     </row>
@@ -886,19 +887,19 @@
         <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="6">
         <v>10.6253016</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <v>103.5233963</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="I6" s="6"/>
     </row>
@@ -910,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="6">
         <v>38.9268986</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="9">
         <v>121.6541167</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="I7" s="6"/>
     </row>
@@ -934,19 +935,19 @@
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="6">
         <v>23.114677</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <v>113.280438</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="I8" s="6"/>
     </row>
@@ -958,7 +959,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="6">
         <v>22.281184</v>
@@ -967,10 +968,10 @@
         <v>114.162595</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -982,19 +983,19 @@
         <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="6">
         <v>23.092757</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="9">
         <v>113.463727</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="I10" s="6"/>
     </row>
@@ -1006,19 +1007,19 @@
         <v>14</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="6">
         <v>32.1995897</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="9">
         <v>119.0737333</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -1030,19 +1031,19 @@
         <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="6">
         <v>29.930919</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="9">
         <v>121.840432</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="I12" s="6"/>
     </row>
@@ -1054,19 +1055,19 @@
         <v>14</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="6">
         <v>36.014071</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="9">
         <v>120.202027</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="I13" s="6"/>
     </row>
@@ -1078,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6">
         <v>30.6190476</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="9">
         <v>122.0829336</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="I14" s="6"/>
     </row>
@@ -1102,7 +1103,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="6">
         <v>23.3532444</v>
@@ -1111,10 +1112,10 @@
         <v>116.7401039</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="I15" s="6"/>
     </row>
@@ -1126,7 +1127,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="6">
         <v>22.467142</v>
@@ -1135,10 +1136,10 @@
         <v>113.881841</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>49</v>
+        <v>29</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="I16" s="6"/>
     </row>
@@ -1150,7 +1151,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="6">
         <v>22.467142</v>
@@ -1159,10 +1160,10 @@
         <v>113.881841</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="I17" s="6"/>
     </row>
@@ -1174,7 +1175,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="6">
         <v>30.652316</v>
@@ -1183,10 +1184,10 @@
         <v>114.575832</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>53</v>
+        <v>29</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="I18" s="6"/>
     </row>
@@ -1198,7 +1199,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="6">
         <v>24.515697</v>
@@ -1207,10 +1208,10 @@
         <v>118.090367</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="I19" s="6"/>
     </row>
@@ -1222,7 +1223,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="6">
         <v>38.991653</v>
@@ -1231,10 +1232,10 @@
         <v>117.734582</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>57</v>
+        <v>29</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -1246,7 +1247,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="6">
         <v>22.556499</v>
@@ -1255,10 +1256,10 @@
         <v>114.236875</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>59</v>
+        <v>29</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -1270,7 +1271,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="6">
         <v>31.9604397</v>
@@ -1279,10 +1280,10 @@
         <v>120.4191892</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>61</v>
+        <v>29</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -1294,7 +1295,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="6">
         <v>22.5649601</v>
@@ -1303,10 +1304,10 @@
         <v>113.4725193</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>63</v>
+        <v>29</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -1318,45 +1319,44 @@
         <v>14</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="12">
+        <v>55.715182</v>
+      </c>
+      <c r="F24" s="13">
+        <v>12.606438</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="6">
-        <v>3.7785327</v>
-      </c>
-      <c r="F24" s="6">
-        <v>98.6994781</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="E25" s="14">
+        <v>53.550388</v>
+      </c>
+      <c r="F25" s="13">
+        <v>8.565961</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="6">
-        <v>-6.1066417</v>
-      </c>
-      <c r="F25" s="6">
-        <v>106.8938697</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I25" s="6"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="s">
@@ -1366,21 +1366,20 @@
         <v>14</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="6">
+        <v>22.5463636</v>
+      </c>
+      <c r="F26" s="6">
+        <v>88.3233235</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="6">
-        <v>-2.9772649</v>
-      </c>
-      <c r="F26" s="6">
-        <v>104.7768894</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="6"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="s">
@@ -1393,18 +1392,17 @@
         <v>71</v>
       </c>
       <c r="E27" s="6">
-        <v>-6.9441371</v>
+        <v>13.0837809</v>
       </c>
       <c r="F27" s="6">
-        <v>110.425464</v>
+        <v>80.2899683</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="6"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="s">
@@ -1417,18 +1415,17 @@
         <v>73</v>
       </c>
       <c r="E28" s="6">
-        <v>-7.2140341</v>
+        <v>9.9805631</v>
       </c>
       <c r="F28" s="6">
-        <v>112.7196817</v>
+        <v>76.2761515</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I28" s="6"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" t="s">
@@ -1441,18 +1438,17 @@
         <v>75</v>
       </c>
       <c r="E29" s="6">
-        <v>34.6860165</v>
+        <v>22.7418628</v>
       </c>
       <c r="F29" s="6">
-        <v>135.2143258</v>
+        <v>69.7114299</v>
       </c>
       <c r="G29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" s="6"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" t="s">
@@ -1462,61 +1458,43 @@
         <v>14</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="6">
+        <v>18.8742618</v>
+      </c>
+      <c r="F30" s="6">
+        <v>72.9578676</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="6">
-        <v>33.903067</v>
-      </c>
-      <c r="F30" s="6">
-        <v>130.9268585</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="9" t="s">
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="16" t="s">
+      <c r="E31" s="6">
+        <v>8.7467675</v>
+      </c>
+      <c r="F31" s="6">
+        <v>78.1381989</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16">
-        <v>35.0918145</v>
-      </c>
-      <c r="F31" s="16">
-        <v>136.8801169</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="s">
@@ -1526,18 +1504,18 @@
         <v>14</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="6">
+        <v>3.7785327</v>
+      </c>
+      <c r="F32" s="6">
+        <v>98.6994781</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="6">
-        <v>34.6476075</v>
-      </c>
-      <c r="F32" s="6">
-        <v>135.382884</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="7" t="s">
         <v>83</v>
       </c>
       <c r="I32" s="6"/>
@@ -1553,15 +1531,15 @@
         <v>84</v>
       </c>
       <c r="E33" s="6">
-        <v>35.008942</v>
+        <v>-6.1066417</v>
       </c>
       <c r="F33" s="6">
-        <v>138.496916</v>
+        <v>106.8938697</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>85</v>
       </c>
       <c r="I33" s="6"/>
@@ -1577,15 +1555,15 @@
         <v>86</v>
       </c>
       <c r="E34" s="6">
-        <v>35.5927027</v>
+        <v>-2.9772649</v>
       </c>
       <c r="F34" s="6">
-        <v>139.774788</v>
+        <v>104.7768894</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>87</v>
       </c>
       <c r="I34" s="6"/>
@@ -1601,15 +1579,15 @@
         <v>88</v>
       </c>
       <c r="E35" s="6">
-        <v>35.4505871</v>
+        <v>-6.9441371</v>
       </c>
       <c r="F35" s="6">
-        <v>139.6656704</v>
+        <v>110.425464</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H35" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>89</v>
       </c>
       <c r="I35" s="6"/>
@@ -1625,16 +1603,16 @@
         <v>90</v>
       </c>
       <c r="E36" s="6">
-        <v>35.1035355</v>
+        <v>-7.2140341</v>
       </c>
       <c r="F36" s="6">
-        <v>129.0423688</v>
+        <v>112.7196817</v>
       </c>
       <c r="G36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="I36" s="6"/>
     </row>
@@ -1646,21 +1624,20 @@
         <v>14</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="6">
+        <v>30.0397683</v>
+      </c>
+      <c r="F37" s="6">
+        <v>47.9267674</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="6">
-        <v>1.443807</v>
-      </c>
-      <c r="F37" s="6">
-        <v>103.9063818</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="H37" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I37" s="6"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
@@ -1670,18 +1647,18 @@
         <v>14</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="6">
+        <v>34.6860165</v>
+      </c>
+      <c r="F38" s="6">
+        <v>135.2143258</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="6">
-        <v>5.4191763</v>
-      </c>
-      <c r="F38" s="6">
-        <v>100.3447276</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="7" t="s">
         <v>97</v>
       </c>
       <c r="I38" s="6"/>
@@ -1697,42 +1674,58 @@
         <v>98</v>
       </c>
       <c r="E39" s="6">
-        <v>2.999852</v>
+        <v>33.903067</v>
       </c>
       <c r="F39" s="6">
-        <v>101.39283</v>
+        <v>130.9268585</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H39" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I39" s="6"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="A40" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="6">
-        <v>10.309589</v>
-      </c>
-      <c r="F40" s="6">
-        <v>123.923568</v>
-      </c>
-      <c r="G40" s="6" t="s">
+      <c r="D40" s="17"/>
+      <c r="E40" s="18">
+        <v>35.0918145</v>
+      </c>
+      <c r="F40" s="18">
+        <v>136.8801169</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="I40" s="6"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
@@ -1742,19 +1735,19 @@
         <v>14</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="6">
+        <v>34.6476075</v>
+      </c>
+      <c r="F41" s="6">
+        <v>135.382884</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="E41" s="6">
-        <v>14.5833333</v>
-      </c>
-      <c r="F41" s="6">
-        <v>120.95</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="I41" s="6"/>
     </row>
@@ -1766,19 +1759,19 @@
         <v>14</v>
       </c>
       <c r="C42" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="6">
+        <v>35.008942</v>
+      </c>
+      <c r="F42" s="6">
+        <v>138.496916</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="E42" s="6">
-        <v>1.27371</v>
-      </c>
-      <c r="F42" s="6">
-        <v>103.801314</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="I42" s="6"/>
     </row>
@@ -1790,20 +1783,21 @@
         <v>14</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="6">
+        <v>35.5927027</v>
+      </c>
+      <c r="F43" s="6">
+        <v>139.774788</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="6">
-        <v>22.61840502</v>
-      </c>
-      <c r="F43" s="6">
-        <v>120.29800207</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>109</v>
-      </c>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" t="s">
@@ -1813,20 +1807,21 @@
         <v>14</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E44" s="6">
-        <v>25.1388806</v>
+        <v>35.4505871</v>
       </c>
       <c r="F44" s="6">
-        <v>121.7508906</v>
+        <v>139.6656704</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
@@ -1836,19 +1831,19 @@
         <v>14</v>
       </c>
       <c r="C45" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="6">
+        <v>29.5320522</v>
+      </c>
+      <c r="F45" s="6">
+        <v>35.0063209</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="E45" s="6">
-        <v>24.288098</v>
-      </c>
-      <c r="F45" s="6">
-        <v>120.5106365</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -1859,20 +1854,21 @@
         <v>14</v>
       </c>
       <c r="C46" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="6">
+        <v>35.1035355</v>
+      </c>
+      <c r="F46" s="6">
+        <v>129.0423688</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="6">
-        <v>13.7037349</v>
-      </c>
-      <c r="F46" s="6">
-        <v>100.5754479</v>
-      </c>
-      <c r="G46" s="6" t="s">
+      <c r="H46" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H46" s="9" t="s">
-        <v>116</v>
-      </c>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" t="s">
@@ -1882,19 +1878,19 @@
         <v>14</v>
       </c>
       <c r="C47" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="6">
+        <v>29.3576775</v>
+      </c>
+      <c r="F47" s="6">
+        <v>47.9049831</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="E47" s="6">
-        <v>13.1040552</v>
-      </c>
-      <c r="F47" s="6">
-        <v>100.9158073</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -1905,18 +1901,18 @@
         <v>14</v>
       </c>
       <c r="C48" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="6">
+        <v>33.9045595</v>
+      </c>
+      <c r="F48" s="6">
+        <v>35.5336093</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="6">
-        <v>7.2103359</v>
-      </c>
-      <c r="F48" s="6">
-        <v>100.5838678</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="7" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1931,17 +1927,18 @@
         <v>121</v>
       </c>
       <c r="E49" s="6">
-        <v>20.8602909</v>
+        <v>1.443807</v>
       </c>
       <c r="F49" s="6">
-        <v>106.7248161</v>
+        <v>103.9063818</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="7" t="s">
         <v>123</v>
       </c>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" t="s">
@@ -1954,17 +1951,18 @@
         <v>124</v>
       </c>
       <c r="E50" s="6">
-        <v>10.7567427</v>
+        <v>5.4191763</v>
       </c>
       <c r="F50" s="6">
-        <v>106.7170139</v>
+        <v>100.3447276</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="7" t="s">
         <v>125</v>
       </c>
+      <c r="I50" s="6"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
@@ -1977,17 +1975,18 @@
         <v>126</v>
       </c>
       <c r="E51" s="6">
-        <v>26.2376961</v>
+        <v>2.999852</v>
       </c>
       <c r="F51" s="6">
-        <v>50.5734224</v>
+        <v>101.39283</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H51" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>127</v>
       </c>
+      <c r="I51" s="6"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
@@ -1999,18 +1998,19 @@
       <c r="C52" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E52" s="6">
-        <v>29.5320522</v>
-      </c>
-      <c r="F52" s="6">
-        <v>35.0063209</v>
+      <c r="E52" s="20">
+        <v>22.317131</v>
+      </c>
+      <c r="F52" s="13">
+        <v>114.208415</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="7" t="s">
         <v>130</v>
       </c>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
@@ -2023,16 +2023,16 @@
         <v>131</v>
       </c>
       <c r="E53" s="6">
-        <v>29.3576775</v>
+        <v>24.5068401</v>
       </c>
       <c r="F53" s="6">
-        <v>47.9049831</v>
+        <v>56.5952891</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H53" s="9" t="s">
         <v>132</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -2043,19 +2043,19 @@
         <v>14</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E54" s="6">
-        <v>24.5068401</v>
+        <v>24.7696943</v>
       </c>
       <c r="F54" s="6">
-        <v>56.5952891</v>
+        <v>67.3346881</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H54" s="9" t="s">
         <v>135</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -2066,20 +2066,21 @@
         <v>14</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E55" s="6">
-        <v>26.4876505</v>
+        <v>10.309589</v>
       </c>
       <c r="F55" s="6">
-        <v>50.1961209</v>
+        <v>123.923568</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H55" s="9" t="s">
         <v>138</v>
       </c>
+      <c r="H55" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I55" s="6"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
@@ -2089,20 +2090,21 @@
         <v>14</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E56" s="6">
-        <v>21.4499763</v>
+        <v>14.5833333</v>
       </c>
       <c r="F56" s="6">
-        <v>39.1725733</v>
+        <v>120.95</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>140</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I56" s="6"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" t="s">
@@ -2112,19 +2114,19 @@
         <v>14</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E57" s="6">
-        <v>24.806936</v>
+        <v>24.9895801</v>
       </c>
       <c r="F57" s="6">
-        <v>54.644405</v>
+        <v>51.5525819</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H57" s="9" t="s">
         <v>143</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -2135,19 +2137,19 @@
         <v>14</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E58" s="6">
-        <v>24.967303</v>
+        <v>26.4876505</v>
       </c>
       <c r="F58" s="6">
-        <v>55.098639</v>
+        <v>50.1961209</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -2158,19 +2160,19 @@
         <v>14</v>
       </c>
       <c r="C59" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="6">
+        <v>21.4499763</v>
+      </c>
+      <c r="F59" s="6">
+        <v>39.1725733</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E59" s="6">
-        <v>25.3462553</v>
-      </c>
-      <c r="F59" s="6">
-        <v>55.4209317</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>147</v>
+      <c r="H59" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -2181,20 +2183,21 @@
         <v>14</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E60" s="6">
-        <v>30.0397683</v>
+        <v>1.27371</v>
       </c>
       <c r="F60" s="6">
-        <v>47.9267674</v>
+        <v>103.801314</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H60" s="9" t="s">
         <v>150</v>
       </c>
+      <c r="H60" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I60" s="6"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" t="s">
@@ -2204,19 +2207,19 @@
         <v>14</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E61" s="6">
-        <v>24.9895801</v>
+        <v>6.9270786</v>
       </c>
       <c r="F61" s="6">
-        <v>51.5525819</v>
+        <v>79.861243</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H61" s="9" t="s">
         <v>153</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -2227,19 +2230,19 @@
         <v>14</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E62" s="6">
-        <v>33.9045595</v>
+        <v>35.5321529</v>
       </c>
       <c r="F62" s="6">
-        <v>35.5336093</v>
+        <v>35.7748042</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H62" s="9" t="s">
         <v>156</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -2250,19 +2253,19 @@
         <v>14</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E63" s="6">
-        <v>35.5321529</v>
+        <v>22.61840502</v>
       </c>
       <c r="F63" s="6">
-        <v>35.7748042</v>
+        <v>120.29800207</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H63" s="9" t="s">
         <v>159</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -2273,18 +2276,18 @@
         <v>14</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E64" s="6">
-        <v>22.3015589</v>
+        <v>25.1388806</v>
       </c>
       <c r="F64" s="6">
-        <v>91.7940582</v>
+        <v>121.7508906</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H64" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H64" s="7" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2299,16 +2302,16 @@
         <v>163</v>
       </c>
       <c r="E65" s="6">
-        <v>22.5463636</v>
+        <v>24.288098</v>
       </c>
       <c r="F65" s="6">
-        <v>88.3233235</v>
+        <v>120.5106365</v>
       </c>
       <c r="G65" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H65" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -2319,18 +2322,18 @@
         <v>14</v>
       </c>
       <c r="C66" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" s="6">
+        <v>13.7037349</v>
+      </c>
+      <c r="F66" s="6">
+        <v>100.5754479</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E66" s="6">
-        <v>13.0837809</v>
-      </c>
-      <c r="F66" s="6">
-        <v>80.2899683</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" s="7" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2345,15 +2348,15 @@
         <v>168</v>
       </c>
       <c r="E67" s="6">
-        <v>9.9805631</v>
+        <v>13.1040552</v>
       </c>
       <c r="F67" s="6">
-        <v>76.2761515</v>
+        <v>100.9158073</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H67" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H67" s="7" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2368,15 +2371,15 @@
         <v>170</v>
       </c>
       <c r="E68" s="6">
-        <v>22.7418628</v>
+        <v>7.2103359</v>
       </c>
       <c r="F68" s="6">
-        <v>69.7114299</v>
+        <v>100.5838678</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H68" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H68" s="7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2391,16 +2394,16 @@
         <v>172</v>
       </c>
       <c r="E69" s="6">
-        <v>18.8742618</v>
+        <v>24.806936</v>
       </c>
       <c r="F69" s="6">
-        <v>72.9578676</v>
+        <v>54.644405</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H69" s="9" t="s">
         <v>173</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -2411,19 +2414,19 @@
         <v>14</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E70" s="6">
-        <v>8.7467675</v>
+        <v>24.967303</v>
       </c>
       <c r="F70" s="6">
-        <v>78.1381989</v>
+        <v>55.098639</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -2434,18 +2437,18 @@
         <v>14</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E71" s="6">
-        <v>24.7696943</v>
+        <v>25.3462553</v>
       </c>
       <c r="F71" s="6">
-        <v>67.3346881</v>
+        <v>55.4209317</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H71" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H71" s="7" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2460,38 +2463,38 @@
         <v>179</v>
       </c>
       <c r="E72" s="6">
-        <v>6.9270786</v>
+        <v>20.8602909</v>
       </c>
       <c r="F72" s="6">
-        <v>79.861243</v>
+        <v>106.7248161</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H72" s="7" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="6" t="s">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E73" s="18">
-        <v>53.550388</v>
-      </c>
-      <c r="F73" s="8">
-        <v>8.565961</v>
-      </c>
-      <c r="G73" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" s="20" t="s">
+      <c r="E73" s="6">
+        <v>10.7567427</v>
+      </c>
+      <c r="F73" s="6">
+        <v>106.7170139</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H73" s="7" t="s">
         <v>183</v>
       </c>
     </row>

--- a/db/dummydata/saco/saco__hubs.xlsx
+++ b/db/dummydata/saco/saco__hubs.xlsx
@@ -292,7 +292,7 @@
     <t>Umm Qasr</t>
   </si>
   <si>
-    <t>Irak</t>
+    <t>Iraq</t>
   </si>
   <si>
     <t>Irak, Umm Qasr 61011, Irak</t>

--- a/db/dummydata/saco/saco__hubs.xlsx
+++ b/db/dummydata/saco/saco__hubs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="185">
   <si>
     <t>STATUS</t>
   </si>
@@ -427,15 +427,18 @@
     <t>Cebu</t>
   </si>
   <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Mandaue City, Provinz Cebu, Philippinen</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
     <t>Philipines</t>
   </si>
   <si>
-    <t>Mandaue City, Provinz Cebu, Philippinen</t>
-  </si>
-  <si>
-    <t>Manila</t>
-  </si>
-  <si>
     <t>Port Area, Manila, Metro Manila, Philippinen</t>
   </si>
   <si>
@@ -553,7 +556,7 @@
     <t>Haiphong</t>
   </si>
   <si>
-    <t>Vietnam</t>
+    <t>Viet Nam</t>
   </si>
   <si>
     <t>Hai Phong port, Hoàng Diệu, Máy Tơ, Ngô Quyền, Haiphong, Vietnam</t>
@@ -2099,10 +2102,10 @@
         <v>120.95</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I56" s="6"/>
     </row>
@@ -2114,7 +2117,7 @@
         <v>14</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E57" s="6">
         <v>24.9895801</v>
@@ -2123,10 +2126,10 @@
         <v>51.5525819</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -2137,7 +2140,7 @@
         <v>14</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E58" s="6">
         <v>26.4876505</v>
@@ -2146,10 +2149,10 @@
         <v>50.1961209</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -2160,7 +2163,7 @@
         <v>14</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E59" s="6">
         <v>21.4499763</v>
@@ -2169,10 +2172,10 @@
         <v>39.1725733</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -2183,7 +2186,7 @@
         <v>14</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E60" s="6">
         <v>1.27371</v>
@@ -2192,10 +2195,10 @@
         <v>103.801314</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I60" s="6"/>
     </row>
@@ -2207,7 +2210,7 @@
         <v>14</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E61" s="6">
         <v>6.9270786</v>
@@ -2216,10 +2219,10 @@
         <v>79.861243</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -2230,7 +2233,7 @@
         <v>14</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E62" s="6">
         <v>35.5321529</v>
@@ -2239,10 +2242,10 @@
         <v>35.7748042</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -2253,7 +2256,7 @@
         <v>14</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E63" s="6">
         <v>22.61840502</v>
@@ -2262,10 +2265,10 @@
         <v>120.29800207</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -2276,7 +2279,7 @@
         <v>14</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E64" s="6">
         <v>25.1388806</v>
@@ -2285,10 +2288,10 @@
         <v>121.7508906</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -2299,7 +2302,7 @@
         <v>14</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E65" s="6">
         <v>24.288098</v>
@@ -2308,10 +2311,10 @@
         <v>120.5106365</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -2322,7 +2325,7 @@
         <v>14</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E66" s="6">
         <v>13.7037349</v>
@@ -2331,10 +2334,10 @@
         <v>100.5754479</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -2345,7 +2348,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E67" s="6">
         <v>13.1040552</v>
@@ -2354,10 +2357,10 @@
         <v>100.9158073</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -2368,7 +2371,7 @@
         <v>14</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E68" s="6">
         <v>7.2103359</v>
@@ -2377,10 +2380,10 @@
         <v>100.5838678</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -2391,7 +2394,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E69" s="6">
         <v>24.806936</v>
@@ -2400,10 +2403,10 @@
         <v>54.644405</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -2414,7 +2417,7 @@
         <v>14</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E70" s="6">
         <v>24.967303</v>
@@ -2423,10 +2426,10 @@
         <v>55.098639</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -2437,7 +2440,7 @@
         <v>14</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E71" s="6">
         <v>25.3462553</v>
@@ -2446,10 +2449,10 @@
         <v>55.4209317</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -2460,7 +2463,7 @@
         <v>14</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E72" s="6">
         <v>20.8602909</v>
@@ -2469,10 +2472,10 @@
         <v>106.7248161</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -2483,7 +2486,7 @@
         <v>14</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E73" s="6">
         <v>10.7567427</v>
@@ -2492,10 +2495,10 @@
         <v>106.7170139</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">

--- a/db/dummydata/saco/saco__hubs.xlsx
+++ b/db/dummydata/saco/saco__hubs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="184">
   <si>
     <t>STATUS</t>
   </si>
@@ -136,7 +136,7 @@
     <t>237 Yingbin Rd, Beilun Qu, Ningbo Shi, Zhejiang Sheng, Kina, 315800</t>
   </si>
   <si>
-    <t>Quingdao</t>
+    <t>Qingdao</t>
   </si>
   <si>
     <t>Kina, Shandong, Qingdao, Huangdao, Latitude 4th Rd, 11 Hong Kong Road</t>
@@ -352,6 +352,114 @@
     <t>Aqaba Container Terminal - ACT, Jordan</t>
   </si>
   <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kuwait Free Trade Zone, Kuwait</t>
+  </si>
+  <si>
+    <t>Beirut</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Beirut Container Port, Libanon</t>
+  </si>
+  <si>
+    <t>Pasir Gudang</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Pelabuhan Johor Pasir Gudang, 81700 Pasir Gudang, Johor, Malaysia</t>
+  </si>
+  <si>
+    <t>Penang</t>
+  </si>
+  <si>
+    <t>Penang Port, Butterworth, Penang, Malaysia</t>
+  </si>
+  <si>
+    <t>Port Kelang</t>
+  </si>
+  <si>
+    <t>Kawasan 13, 42000 Port Klang, Selangor, Malaysia</t>
+  </si>
+  <si>
+    <t>Rotterdam</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Stonecutters Island, Hong Kong</t>
+  </si>
+  <si>
+    <t>Sohar</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Liwa, Oman</t>
+  </si>
+  <si>
+    <t>Port Qasim</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Port Mohammad Bin Qasim، Karachi, Sindh, Pakistan</t>
+  </si>
+  <si>
+    <t>Cebu</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Mandaue City, Provinz Cebu, Philippinen</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>Port Area, Manila, Metro Manila, Philippinen</t>
+  </si>
+  <si>
+    <t>Hamad</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Municipality, Al Wakrah, Qatar</t>
+  </si>
+  <si>
+    <t>Dammam</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>King Abdulaziz Seaport, Dammam 32211, Saudiarabien</t>
+  </si>
+  <si>
+    <t>Jeddah</t>
+  </si>
+  <si>
+    <t>Jeddah Islamic Seaport, Jeddah 22312, Saudiarabien</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>460 Alexandra Rd, Singapur 119963</t>
+  </si>
+  <si>
     <t>Pusan</t>
   </si>
   <si>
@@ -361,117 +469,6 @@
     <t>16 Jungangdong 5(o)-ga, Jung-gu, Busan, Südkorea</t>
   </si>
   <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kuwait Free Trade Zone, Kuwait</t>
-  </si>
-  <si>
-    <t>Beirut</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Beirut Container Port, Libanon</t>
-  </si>
-  <si>
-    <t>Pasir Gudang</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Pelabuhan Johor Pasir Gudang, 81700 Pasir Gudang, Johor, Malaysia</t>
-  </si>
-  <si>
-    <t>Penang</t>
-  </si>
-  <si>
-    <t>Penang Port, Butterworth, Penang, Malaysia</t>
-  </si>
-  <si>
-    <t>Port Kelang</t>
-  </si>
-  <si>
-    <t>Kawasan 13, 42000 Port Klang, Selangor, Malaysia</t>
-  </si>
-  <si>
-    <t>Rotterdam</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Stonecutters Island, Hong Kong</t>
-  </si>
-  <si>
-    <t>Sohar</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Liwa, Oman</t>
-  </si>
-  <si>
-    <t>Port Qasim</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Port Mohammad Bin Qasim، Karachi, Sindh, Pakistan</t>
-  </si>
-  <si>
-    <t>Cebu</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Mandaue City, Provinz Cebu, Philippinen</t>
-  </si>
-  <si>
-    <t>Manila</t>
-  </si>
-  <si>
-    <t>Philipines</t>
-  </si>
-  <si>
-    <t>Port Area, Manila, Metro Manila, Philippinen</t>
-  </si>
-  <si>
-    <t>Hamad</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Municipality, Al Wakrah, Qatar</t>
-  </si>
-  <si>
-    <t>Dammam</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>King Abdulaziz Seaport, Dammam 32211, Saudiarabien</t>
-  </si>
-  <si>
-    <t>Jeddah</t>
-  </si>
-  <si>
-    <t>Jeddah Islamic Seaport, Jeddah 22312, Saudiarabien</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>460 Alexandra Rd, Singapur 119963</t>
-  </si>
-  <si>
     <t>Colombo</t>
   </si>
   <si>
@@ -535,7 +532,7 @@
     <t>Abu Dhabi</t>
   </si>
   <si>
-    <t>U.A.E.</t>
+    <t>United Arab Emirates</t>
   </si>
   <si>
     <t>Khalifa Port Container Terminal, Building 70, Taweelah, Abu Dhabi - Abu Dhabi - Forenede Arabiske Emirater</t>
@@ -1860,18 +1857,17 @@
         <v>113</v>
       </c>
       <c r="E46" s="6">
-        <v>35.1035355</v>
+        <v>29.3576775</v>
       </c>
       <c r="F46" s="6">
-        <v>129.0423688</v>
+        <v>47.9049831</v>
       </c>
       <c r="G46" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H46" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I46" s="6"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" t="s">
@@ -1881,13 +1877,13 @@
         <v>14</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" s="6">
-        <v>29.3576775</v>
+        <v>33.9045595</v>
       </c>
       <c r="F47" s="6">
-        <v>47.9049831</v>
+        <v>35.5336093</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>116</v>
@@ -1907,10 +1903,10 @@
         <v>118</v>
       </c>
       <c r="E48" s="6">
-        <v>33.9045595</v>
+        <v>1.443807</v>
       </c>
       <c r="F48" s="6">
-        <v>35.5336093</v>
+        <v>103.9063818</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>119</v>
@@ -1918,6 +1914,7 @@
       <c r="H48" s="7" t="s">
         <v>120</v>
       </c>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" t="s">
@@ -1930,16 +1927,16 @@
         <v>121</v>
       </c>
       <c r="E49" s="6">
-        <v>1.443807</v>
+        <v>5.4191763</v>
       </c>
       <c r="F49" s="6">
-        <v>103.9063818</v>
+        <v>100.3447276</v>
       </c>
       <c r="G49" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="I49" s="6"/>
     </row>
@@ -1951,19 +1948,19 @@
         <v>14</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="6">
+        <v>2.999852</v>
+      </c>
+      <c r="F50" s="6">
+        <v>101.39283</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="E50" s="6">
-        <v>5.4191763</v>
-      </c>
-      <c r="F50" s="6">
-        <v>100.3447276</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="I50" s="6"/>
     </row>
@@ -1975,16 +1972,16 @@
         <v>14</v>
       </c>
       <c r="C51" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="20">
+        <v>22.317131</v>
+      </c>
+      <c r="F51" s="13">
+        <v>114.208415</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="E51" s="6">
-        <v>2.999852</v>
-      </c>
-      <c r="F51" s="6">
-        <v>101.39283</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>127</v>
@@ -2001,11 +1998,11 @@
       <c r="C52" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E52" s="20">
-        <v>22.317131</v>
-      </c>
-      <c r="F52" s="13">
-        <v>114.208415</v>
+      <c r="E52" s="6">
+        <v>24.5068401</v>
+      </c>
+      <c r="F52" s="6">
+        <v>56.5952891</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>129</v>
@@ -2013,7 +2010,6 @@
       <c r="H52" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I52" s="6"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
@@ -2026,10 +2022,10 @@
         <v>131</v>
       </c>
       <c r="E53" s="6">
-        <v>24.5068401</v>
+        <v>24.7696943</v>
       </c>
       <c r="F53" s="6">
-        <v>56.5952891</v>
+        <v>67.3346881</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>132</v>
@@ -2049,10 +2045,10 @@
         <v>134</v>
       </c>
       <c r="E54" s="6">
-        <v>24.7696943</v>
+        <v>10.309589</v>
       </c>
       <c r="F54" s="6">
-        <v>67.3346881</v>
+        <v>123.923568</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>135</v>
@@ -2060,6 +2056,7 @@
       <c r="H54" s="7" t="s">
         <v>136</v>
       </c>
+      <c r="I54" s="6"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
@@ -2072,16 +2069,16 @@
         <v>137</v>
       </c>
       <c r="E55" s="6">
-        <v>10.309589</v>
+        <v>14.5833333</v>
       </c>
       <c r="F55" s="6">
-        <v>123.923568</v>
+        <v>120.95</v>
       </c>
       <c r="G55" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="I55" s="6"/>
     </row>
@@ -2093,21 +2090,20 @@
         <v>14</v>
       </c>
       <c r="C56" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="6">
+        <v>24.9895801</v>
+      </c>
+      <c r="F56" s="6">
+        <v>51.5525819</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E56" s="6">
-        <v>14.5833333</v>
-      </c>
-      <c r="F56" s="6">
-        <v>120.95</v>
-      </c>
-      <c r="G56" s="6" t="s">
+      <c r="H56" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H56" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I56" s="6"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" t="s">
@@ -2117,19 +2113,19 @@
         <v>14</v>
       </c>
       <c r="C57" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="6">
+        <v>26.4876505</v>
+      </c>
+      <c r="F57" s="6">
+        <v>50.1961209</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="6">
-        <v>24.9895801</v>
-      </c>
-      <c r="F57" s="6">
-        <v>51.5525819</v>
-      </c>
-      <c r="G57" s="6" t="s">
+      <c r="H57" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -2140,19 +2136,19 @@
         <v>14</v>
       </c>
       <c r="C58" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="6">
+        <v>21.4499763</v>
+      </c>
+      <c r="F58" s="6">
+        <v>39.1725733</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="E58" s="6">
-        <v>26.4876505</v>
-      </c>
-      <c r="F58" s="6">
-        <v>50.1961209</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -2163,20 +2159,21 @@
         <v>14</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E59" s="6">
-        <v>21.4499763</v>
+        <v>1.27371</v>
       </c>
       <c r="F59" s="6">
-        <v>39.1725733</v>
+        <v>103.801314</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>147</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>150</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="I59" s="6"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" t="s">
@@ -2186,19 +2183,19 @@
         <v>14</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="6">
+        <v>35.1035355</v>
+      </c>
+      <c r="F60" s="6">
+        <v>129.0423688</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="E60" s="6">
-        <v>1.27371</v>
-      </c>
-      <c r="F60" s="6">
-        <v>103.801314</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="I60" s="6"/>
     </row>
@@ -2210,7 +2207,7 @@
         <v>14</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E61" s="6">
         <v>6.9270786</v>
@@ -2219,10 +2216,10 @@
         <v>79.861243</v>
       </c>
       <c r="G61" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H61" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -2233,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E62" s="6">
         <v>35.5321529</v>
@@ -2242,10 +2239,10 @@
         <v>35.7748042</v>
       </c>
       <c r="G62" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H62" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -2256,7 +2253,7 @@
         <v>14</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E63" s="6">
         <v>22.61840502</v>
@@ -2265,10 +2262,10 @@
         <v>120.29800207</v>
       </c>
       <c r="G63" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H63" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -2279,7 +2276,7 @@
         <v>14</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E64" s="6">
         <v>25.1388806</v>
@@ -2288,10 +2285,10 @@
         <v>121.7508906</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -2302,7 +2299,7 @@
         <v>14</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E65" s="6">
         <v>24.288098</v>
@@ -2311,10 +2308,10 @@
         <v>120.5106365</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -2325,7 +2322,7 @@
         <v>14</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E66" s="6">
         <v>13.7037349</v>
@@ -2334,10 +2331,10 @@
         <v>100.5754479</v>
       </c>
       <c r="G66" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H66" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -2348,7 +2345,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E67" s="6">
         <v>13.1040552</v>
@@ -2357,10 +2354,10 @@
         <v>100.9158073</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -2371,7 +2368,7 @@
         <v>14</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E68" s="6">
         <v>7.2103359</v>
@@ -2380,10 +2377,10 @@
         <v>100.5838678</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -2394,7 +2391,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E69" s="6">
         <v>24.806936</v>
@@ -2403,10 +2400,10 @@
         <v>54.644405</v>
       </c>
       <c r="G69" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H69" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -2417,7 +2414,7 @@
         <v>14</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E70" s="6">
         <v>24.967303</v>
@@ -2426,10 +2423,10 @@
         <v>55.098639</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -2440,7 +2437,7 @@
         <v>14</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E71" s="6">
         <v>25.3462553</v>
@@ -2449,10 +2446,10 @@
         <v>55.4209317</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -2463,7 +2460,7 @@
         <v>14</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E72" s="6">
         <v>20.8602909</v>
@@ -2472,10 +2469,10 @@
         <v>106.7248161</v>
       </c>
       <c r="G72" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -2486,7 +2483,7 @@
         <v>14</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E73" s="6">
         <v>10.7567427</v>
@@ -2495,10 +2492,10 @@
         <v>106.7170139</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">

--- a/db/dummydata/saco/saco__hubs.xlsx
+++ b/db/dummydata/saco/saco__hubs.xlsx
@@ -553,7 +553,7 @@
     <t>Haiphong</t>
   </si>
   <si>
-    <t>Viet Nam</t>
+    <t>Vietnam</t>
   </si>
   <si>
     <t>Hai Phong port, Hoàng Diệu, Máy Tơ, Ngô Quyền, Haiphong, Vietnam</t>
